--- a/analysis/header_class.xlsx
+++ b/analysis/header_class.xlsx
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>loss</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>average_precition</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -125,15 +121,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>loss_list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>corr</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>average_distance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loss(LDAなどではなし)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loss_list(LDA,SVMではprobability_list)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -527,88 +527,88 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
